--- a/Code/Results/Cases/Case_4_250/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_250/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.13347419641266</v>
+        <v>14.63447178262513</v>
       </c>
       <c r="C2">
-        <v>7.661616483105204</v>
+        <v>9.928194497479533</v>
       </c>
       <c r="D2">
-        <v>9.774010867979879</v>
+        <v>14.19146109943217</v>
       </c>
       <c r="E2">
-        <v>9.260926442173297</v>
+        <v>14.99917169517252</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>30.3658837041073</v>
+        <v>43.71838808127639</v>
       </c>
       <c r="H2">
-        <v>11.17982655393231</v>
+        <v>18.1677928269181</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.198970244041648</v>
+        <v>8.938778278569178</v>
       </c>
       <c r="K2">
-        <v>11.10532554011794</v>
+        <v>10.43373911065065</v>
       </c>
       <c r="L2">
-        <v>7.313326423182902</v>
+        <v>11.73334175441157</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.01884405541613</v>
+        <v>29.61596429947628</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.27343425162098</v>
+        <v>14.43175023206108</v>
       </c>
       <c r="C3">
-        <v>7.686297440694409</v>
+        <v>9.936574106402505</v>
       </c>
       <c r="D3">
-        <v>9.549028644366112</v>
+        <v>14.18724944645671</v>
       </c>
       <c r="E3">
-        <v>9.211814888131546</v>
+        <v>15.0240717915005</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>30.30052024376781</v>
+        <v>43.84782588405859</v>
       </c>
       <c r="H3">
-        <v>11.26435077917178</v>
+        <v>18.22164839699431</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.232601667980989</v>
+        <v>8.952127706943084</v>
       </c>
       <c r="K3">
-        <v>10.46209611174905</v>
+        <v>10.27966833475122</v>
       </c>
       <c r="L3">
-        <v>7.173914382095449</v>
+        <v>11.73319092111807</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.10563948414048</v>
+        <v>29.70881781553483</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.71976029798212</v>
+        <v>14.30824148186578</v>
       </c>
       <c r="C4">
-        <v>7.702727306112528</v>
+        <v>9.942264362760685</v>
       </c>
       <c r="D4">
-        <v>9.413648022664745</v>
+        <v>14.18720349660893</v>
       </c>
       <c r="E4">
-        <v>9.186009959883346</v>
+        <v>15.04142807395589</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>30.287599928035</v>
+        <v>43.93731917901619</v>
       </c>
       <c r="H4">
-        <v>11.32202751786918</v>
+        <v>18.25721671696111</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.254025890051865</v>
+        <v>8.960783423272202</v>
       </c>
       <c r="K4">
-        <v>10.04627419413884</v>
+        <v>10.18529639603996</v>
       </c>
       <c r="L4">
-        <v>7.089833217944316</v>
+        <v>11.73458469076688</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.17189039730119</v>
+        <v>29.77093809211249</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.48782288103192</v>
+        <v>14.25821120749323</v>
       </c>
       <c r="C5">
-        <v>7.709740676446357</v>
+        <v>9.944720707849934</v>
       </c>
       <c r="D5">
-        <v>9.359236785994662</v>
+        <v>14.18782520034126</v>
       </c>
       <c r="E5">
-        <v>9.176574228477575</v>
+        <v>15.04902113806031</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>30.28893594591656</v>
+        <v>43.97630143544674</v>
       </c>
       <c r="H5">
-        <v>11.34694268434931</v>
+        <v>18.27234027014256</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.262953530400737</v>
+        <v>8.96442647763371</v>
       </c>
       <c r="K5">
-        <v>9.871617996840948</v>
+        <v>10.14694049313715</v>
       </c>
       <c r="L5">
-        <v>7.055985705077576</v>
+        <v>11.73552762429969</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.20203022143126</v>
+        <v>29.79753611658895</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.44893313436284</v>
+        <v>14.24992357204987</v>
       </c>
       <c r="C6">
-        <v>7.710924376504405</v>
+        <v>9.945136900810663</v>
       </c>
       <c r="D6">
-        <v>9.350249440020312</v>
+        <v>14.18796715834367</v>
       </c>
       <c r="E6">
-        <v>9.175072230467096</v>
+        <v>15.05031339074709</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>30.28954929154317</v>
+        <v>43.98292600460606</v>
       </c>
       <c r="H6">
-        <v>11.35116389980269</v>
+        <v>18.27488953503852</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.264447930423585</v>
+        <v>8.965038406613845</v>
       </c>
       <c r="K6">
-        <v>9.84230367470497</v>
+        <v>10.14057894204765</v>
       </c>
       <c r="L6">
-        <v>7.050391492087485</v>
+        <v>11.73570687734838</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.207221344808</v>
+        <v>29.80203019210251</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.71665766606524</v>
+        <v>14.30756546224289</v>
       </c>
       <c r="C7">
-        <v>7.702820606453878</v>
+        <v>9.942296932494859</v>
       </c>
       <c r="D7">
-        <v>9.412911062993706</v>
+        <v>14.18720928600052</v>
       </c>
       <c r="E7">
-        <v>9.185878352717628</v>
+        <v>15.04152836982746</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>30.28759154235033</v>
+        <v>43.93783474058847</v>
       </c>
       <c r="H7">
-        <v>11.32235787109712</v>
+        <v>18.25741813055025</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.254145490205643</v>
+        <v>8.960832085547654</v>
       </c>
       <c r="K7">
-        <v>10.04393972637214</v>
+        <v>10.18477864588522</v>
       </c>
       <c r="L7">
-        <v>7.089375007879092</v>
+        <v>11.73459588778825</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.17228430297488</v>
+        <v>29.77129160672457</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.84231333081986</v>
+        <v>14.56440854842272</v>
       </c>
       <c r="C8">
-        <v>7.669860021469111</v>
+        <v>9.930970904919475</v>
       </c>
       <c r="D8">
-        <v>9.695902454587783</v>
+        <v>14.18948285890991</v>
       </c>
       <c r="E8">
-        <v>9.243082095103848</v>
+        <v>15.00732835308371</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>30.33755498091269</v>
+        <v>43.76093544991109</v>
       </c>
       <c r="H8">
-        <v>11.20774545055468</v>
+        <v>18.18584339068655</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.210407084524556</v>
+        <v>8.943286072499133</v>
       </c>
       <c r="K8">
-        <v>10.88789477889662</v>
+        <v>10.38059450644258</v>
       </c>
       <c r="L8">
-        <v>7.264962691114238</v>
+        <v>11.73298199640015</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.0460106721266</v>
+        <v>29.64691952846857</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.84253718223181</v>
+        <v>15.0731572828234</v>
       </c>
       <c r="C9">
-        <v>7.615478712406783</v>
+        <v>9.913066982101178</v>
       </c>
       <c r="D9">
-        <v>10.26997874894459</v>
+        <v>14.21400820758805</v>
       </c>
       <c r="E9">
-        <v>9.390327672733765</v>
+        <v>14.95665096959937</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>30.6618704312331</v>
+        <v>43.49378362509564</v>
       </c>
       <c r="H9">
-        <v>11.03082314097405</v>
+        <v>18.06531318509347</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.130669160665172</v>
+        <v>8.912506147825068</v>
       </c>
       <c r="K9">
-        <v>12.37603510289656</v>
+        <v>10.76448275102003</v>
       </c>
       <c r="L9">
-        <v>7.619836270007753</v>
+        <v>11.7415551661359</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.90657239404636</v>
+        <v>29.44359407584708</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.24700497699999</v>
+        <v>15.44663421344819</v>
       </c>
       <c r="C10">
-        <v>7.581975925703994</v>
+        <v>9.902512897541712</v>
       </c>
       <c r="D10">
-        <v>10.6998560425065</v>
+        <v>14.24412656166797</v>
       </c>
       <c r="E10">
-        <v>9.520569888563587</v>
+        <v>14.9293859843638</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>31.05169483447187</v>
+        <v>43.34645770939375</v>
       </c>
       <c r="H10">
-        <v>10.93290792886118</v>
+        <v>17.98882647447594</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.07560182601777</v>
+        <v>8.892082627783457</v>
       </c>
       <c r="K10">
-        <v>13.36688908087182</v>
+        <v>11.04394236622549</v>
       </c>
       <c r="L10">
-        <v>7.885042079574789</v>
+        <v>11.75493019400569</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.87765567060692</v>
+        <v>29.31899452921864</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.86647323209904</v>
+        <v>15.61577142107846</v>
       </c>
       <c r="C11">
-        <v>7.568184264889247</v>
+        <v>9.898270779055826</v>
       </c>
       <c r="D11">
-        <v>10.89648630693817</v>
+        <v>14.26042050593385</v>
       </c>
       <c r="E11">
-        <v>9.5847335018279</v>
+        <v>14.91914082007314</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>31.26462918191454</v>
+        <v>43.29012801500895</v>
       </c>
       <c r="H11">
-        <v>10.89601411515069</v>
+        <v>17.95664664176698</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.051276824730961</v>
+        <v>8.883262608918512</v>
       </c>
       <c r="K11">
-        <v>13.79543249227916</v>
+        <v>11.17000105117365</v>
       </c>
       <c r="L11">
-        <v>8.006278237665295</v>
+        <v>11.76253223131589</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.88215526961092</v>
+        <v>29.26770317307262</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.09615721486045</v>
+        <v>15.67965339926558</v>
       </c>
       <c r="C12">
-        <v>7.563174558068082</v>
+        <v>9.896744341424149</v>
       </c>
       <c r="D12">
-        <v>10.97104774884892</v>
+        <v>14.26695993783791</v>
       </c>
       <c r="E12">
-        <v>9.609745823280702</v>
+        <v>14.91557092134673</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>31.35058483709092</v>
+        <v>43.27033906709002</v>
       </c>
       <c r="H12">
-        <v>10.88320438832448</v>
+        <v>17.94483663716465</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.042166772082183</v>
+        <v>8.87999005074585</v>
       </c>
       <c r="K12">
-        <v>13.95452939655538</v>
+        <v>11.21754136646958</v>
       </c>
       <c r="L12">
-        <v>8.052242706816838</v>
+        <v>11.76562731961491</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.88654044002364</v>
+        <v>29.24905636420261</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.04690746356209</v>
+        <v>15.66590357672171</v>
       </c>
       <c r="C13">
-        <v>7.564243943455608</v>
+        <v>9.89706953750694</v>
       </c>
       <c r="D13">
-        <v>10.95498586875788</v>
+        <v>14.2655351915039</v>
       </c>
       <c r="E13">
-        <v>9.604327053470534</v>
+        <v>14.91632599764604</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>31.33183294905055</v>
+        <v>43.27453232515819</v>
       </c>
       <c r="H13">
-        <v>10.88591053459827</v>
+        <v>17.94736342138363</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.044124329155335</v>
+        <v>8.880691862204371</v>
       </c>
       <c r="K13">
-        <v>13.92040639090565</v>
+        <v>11.20731204448222</v>
       </c>
       <c r="L13">
-        <v>8.042341447099416</v>
+        <v>11.76495114536874</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.88547446589834</v>
+        <v>29.25303775328158</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.88546725148173</v>
+        <v>15.62103069128415</v>
       </c>
       <c r="C14">
-        <v>7.567767819298157</v>
+        <v>9.898143597992865</v>
       </c>
       <c r="D14">
-        <v>10.90261876628744</v>
+        <v>14.26095112996794</v>
       </c>
       <c r="E14">
-        <v>9.586776908107899</v>
+        <v>14.91884091853544</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>31.27159302521893</v>
+        <v>43.28846903930239</v>
       </c>
       <c r="H14">
-        <v>10.89493661583026</v>
+        <v>17.95566749479277</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.050525322818233</v>
+        <v>8.882992024673786</v>
       </c>
       <c r="K14">
-        <v>13.80858521085256</v>
+        <v>11.17391637002464</v>
       </c>
       <c r="L14">
-        <v>8.010058825260526</v>
+        <v>11.7627825410517</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.88246147723095</v>
+        <v>29.26615352828634</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.78594465313789</v>
+        <v>15.59352138302078</v>
       </c>
       <c r="C15">
-        <v>7.569954161011146</v>
+        <v>9.898811891799028</v>
       </c>
       <c r="D15">
-        <v>10.87055417860797</v>
+        <v>14.25819123743651</v>
       </c>
       <c r="E15">
-        <v>9.576120272727962</v>
+        <v>14.92042169727089</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>31.23539323091119</v>
+        <v>43.29720661024699</v>
       </c>
       <c r="H15">
-        <v>10.90061844969127</v>
+        <v>17.9608029156067</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.054459216394208</v>
+        <v>8.884409708093168</v>
       </c>
       <c r="K15">
-        <v>13.73967734672181</v>
+        <v>11.15343390259951</v>
       </c>
       <c r="L15">
-        <v>7.990291088779679</v>
+        <v>11.76148232725392</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.88096939355071</v>
+        <v>29.27428842392307</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.20583316829127</v>
+        <v>15.43556046944319</v>
       </c>
       <c r="C16">
-        <v>7.582906779740715</v>
+        <v>9.902801342193476</v>
       </c>
       <c r="D16">
-        <v>10.68702281418593</v>
+        <v>14.24311359103325</v>
       </c>
       <c r="E16">
-        <v>9.516476270462363</v>
+        <v>14.93009890354571</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>31.03851305330598</v>
+        <v>43.35035450511906</v>
       </c>
       <c r="H16">
-        <v>10.93547809317414</v>
+        <v>17.99098209755309</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.077205864386801</v>
+        <v>8.892668483542501</v>
       </c>
       <c r="K16">
-        <v>13.33843666987</v>
+        <v>11.03567902782209</v>
       </c>
       <c r="L16">
-        <v>7.877128297038813</v>
+        <v>11.75446376460044</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.87772898805913</v>
+        <v>29.32245508734778</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.84117416915189</v>
+        <v>15.33842065949176</v>
       </c>
       <c r="C17">
-        <v>7.591227020763769</v>
+        <v>9.905391610905511</v>
       </c>
       <c r="D17">
-        <v>10.57466878100385</v>
+        <v>14.23452560602441</v>
       </c>
       <c r="E17">
-        <v>9.481151641923526</v>
+        <v>14.93658783983712</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>30.92699970062309</v>
+        <v>43.38570040065523</v>
       </c>
       <c r="H17">
-        <v>10.9588648058884</v>
+        <v>18.01016554538786</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.091343886519766</v>
+        <v>8.897855328507022</v>
       </c>
       <c r="K17">
-        <v>13.08660687381219</v>
+        <v>10.96313631333152</v>
       </c>
       <c r="L17">
-        <v>7.807836121734729</v>
+        <v>11.75054551715986</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.88036335906949</v>
+        <v>29.35338497674515</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.62818770180408</v>
+        <v>15.28248026715922</v>
       </c>
       <c r="C18">
-        <v>7.596148690833897</v>
+        <v>9.906934104619786</v>
       </c>
       <c r="D18">
-        <v>10.51014995382571</v>
+        <v>14.22983032103016</v>
       </c>
       <c r="E18">
-        <v>9.461296119237055</v>
+        <v>14.94052324605279</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>30.86619976451947</v>
+        <v>43.40703632772644</v>
       </c>
       <c r="H18">
-        <v>10.97303223623832</v>
+        <v>18.02144544087529</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.099544169721295</v>
+        <v>8.900882990894331</v>
       </c>
       <c r="K18">
-        <v>12.93967037981749</v>
+        <v>10.92131345039881</v>
       </c>
       <c r="L18">
-        <v>7.768038555985535</v>
+        <v>11.74843481497094</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.88353154842223</v>
+        <v>29.37168226326272</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.55551526755468</v>
+        <v>15.26352988716548</v>
       </c>
       <c r="C19">
-        <v>7.597838324057986</v>
+        <v>9.907465420250814</v>
       </c>
       <c r="D19">
-        <v>10.48832458901894</v>
+        <v>14.22828264065913</v>
       </c>
       <c r="E19">
-        <v>9.454652517234459</v>
+        <v>14.9418906130368</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>30.84618116152673</v>
+        <v>43.41443291878259</v>
       </c>
       <c r="H19">
-        <v>10.97795024876086</v>
+        <v>18.02530688917299</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.102332493648471</v>
+        <v>8.901915727656146</v>
       </c>
       <c r="K19">
-        <v>12.88956095648416</v>
+        <v>10.90713737496236</v>
       </c>
       <c r="L19">
-        <v>7.754574613670457</v>
+        <v>11.74774477799953</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.88488383873359</v>
+        <v>29.37796449355386</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.88032811135929</v>
+        <v>15.34876883239376</v>
       </c>
       <c r="C20">
-        <v>7.590327200551567</v>
+        <v>9.905110427426296</v>
       </c>
       <c r="D20">
-        <v>10.58661867138762</v>
+        <v>14.23541455290529</v>
       </c>
       <c r="E20">
-        <v>9.484864105017127</v>
+        <v>14.93587606100858</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>30.93852334667632</v>
+        <v>43.38183362672851</v>
       </c>
       <c r="H20">
-        <v>10.95630071278779</v>
+        <v>18.00809796690822</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.089831805289925</v>
+        <v>8.897298594581688</v>
       </c>
       <c r="K20">
-        <v>13.11363091298798</v>
+        <v>10.97086908059588</v>
       </c>
       <c r="L20">
-        <v>7.815206671938091</v>
+        <v>11.75094783764756</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.87991082485663</v>
+        <v>29.35003993247945</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.93301855412455</v>
+        <v>15.63421591562857</v>
       </c>
       <c r="C21">
-        <v>7.566726955699697</v>
+        <v>9.897825953637298</v>
       </c>
       <c r="D21">
-        <v>10.91799788717838</v>
+        <v>14.26228758835443</v>
       </c>
       <c r="E21">
-        <v>9.591912346764522</v>
+        <v>14.91809382437088</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>31.28914095629082</v>
+        <v>43.28433360690108</v>
       </c>
       <c r="H21">
-        <v>10.89225341692764</v>
+        <v>17.95321818915218</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.048642471336903</v>
+        <v>8.882314584595537</v>
       </c>
       <c r="K21">
-        <v>13.84151608793156</v>
+        <v>11.18373111557546</v>
       </c>
       <c r="L21">
-        <v>8.01953975114222</v>
+        <v>11.76341365625605</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.88327254638782</v>
+        <v>29.2622800352128</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.59250700288389</v>
+        <v>15.81977567507916</v>
       </c>
       <c r="C22">
-        <v>7.552546108866194</v>
+        <v>9.893531005636055</v>
       </c>
       <c r="D22">
-        <v>11.13514605612046</v>
+        <v>14.282001158399</v>
       </c>
       <c r="E22">
-        <v>9.6660451545036</v>
+        <v>14.9082770963448</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>31.5493964553196</v>
+        <v>43.22960084162707</v>
       </c>
       <c r="H22">
-        <v>10.85719395475741</v>
+        <v>17.91954146692876</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.02231180117073</v>
+        <v>8.872914339782486</v>
       </c>
       <c r="K22">
-        <v>14.29868562894389</v>
+        <v>11.32169181592381</v>
       </c>
       <c r="L22">
-        <v>8.153391374042156</v>
+        <v>11.77282095758682</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.90116609585051</v>
+        <v>29.2094481325414</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.24311488182959</v>
+        <v>15.72084858828348</v>
       </c>
       <c r="C23">
-        <v>7.559999342306287</v>
+        <v>9.895780811339232</v>
       </c>
       <c r="D23">
-        <v>11.01921375130686</v>
+        <v>14.27128415571118</v>
       </c>
       <c r="E23">
-        <v>9.626094974806303</v>
+        <v>14.91335151631986</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31.40758303873367</v>
+        <v>43.25798880482164</v>
       </c>
       <c r="H23">
-        <v>10.87526253023927</v>
+        <v>17.93731499275199</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.036312119266843</v>
+        <v>8.877895596499028</v>
       </c>
       <c r="K23">
-        <v>14.05637791401157</v>
+        <v>11.24817879702915</v>
       </c>
       <c r="L23">
-        <v>8.081933401519702</v>
+        <v>11.76768544887658</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.89013195117232</v>
+        <v>29.2372311933181</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.86263701900642</v>
+        <v>15.34409071001807</v>
       </c>
       <c r="C24">
-        <v>7.590733578982518</v>
+        <v>9.905237384377795</v>
       </c>
       <c r="D24">
-        <v>10.58121588823951</v>
+        <v>14.23501190576414</v>
       </c>
       <c r="E24">
-        <v>9.483184289836558</v>
+        <v>14.93619721815399</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>30.93330321008048</v>
+        <v>43.38357863358932</v>
       </c>
       <c r="H24">
-        <v>10.9574576947057</v>
+        <v>18.00903193703022</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.090515192268841</v>
+        <v>8.89755015168938</v>
       </c>
       <c r="K24">
-        <v>13.10142006156067</v>
+        <v>10.96737345803683</v>
       </c>
       <c r="L24">
-        <v>7.811874321052775</v>
+        <v>11.75076550625783</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.88011027558345</v>
+        <v>29.35155062198901</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.32405403361581</v>
+        <v>14.93533740093401</v>
       </c>
       <c r="C25">
-        <v>7.629072892880373</v>
+        <v>9.91745206528401</v>
       </c>
       <c r="D25">
-        <v>10.11300498279766</v>
+        <v>14.20523767910848</v>
       </c>
       <c r="E25">
-        <v>9.346664225939778</v>
+        <v>14.96860820073593</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>30.5484641633393</v>
+        <v>43.55748164768766</v>
       </c>
       <c r="H25">
-        <v>11.07327501733737</v>
+        <v>18.09579926777751</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.151610852948997</v>
+        <v>8.92044674653804</v>
       </c>
       <c r="K25">
-        <v>11.99143397163149</v>
+        <v>10.66090577214694</v>
       </c>
       <c r="L25">
-        <v>7.522909894445559</v>
+        <v>11.73798700939521</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.93194209258245</v>
+        <v>29.49425037770871</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_250/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_250/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.63447178262513</v>
+        <v>14.13347419641265</v>
       </c>
       <c r="C2">
-        <v>9.928194497479533</v>
+        <v>7.661616483105084</v>
       </c>
       <c r="D2">
-        <v>14.19146109943217</v>
+        <v>9.774010867979879</v>
       </c>
       <c r="E2">
-        <v>14.99917169517252</v>
+        <v>9.260926442173348</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>43.71838808127639</v>
+        <v>30.36588370410781</v>
       </c>
       <c r="H2">
-        <v>18.1677928269181</v>
+        <v>11.17982655393232</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.938778278569178</v>
+        <v>5.198970244041613</v>
       </c>
       <c r="K2">
-        <v>10.43373911065065</v>
+        <v>11.10532554011791</v>
       </c>
       <c r="L2">
-        <v>11.73334175441157</v>
+        <v>7.313326423182902</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.61596429947628</v>
+        <v>19.01884405541628</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.43175023206108</v>
+        <v>13.27343425162098</v>
       </c>
       <c r="C3">
-        <v>9.936574106402505</v>
+        <v>7.686297440694418</v>
       </c>
       <c r="D3">
-        <v>14.18724944645671</v>
+        <v>9.549028644365999</v>
       </c>
       <c r="E3">
-        <v>15.0240717915005</v>
+        <v>9.21181488813143</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>43.84782588405859</v>
+        <v>30.3005202437676</v>
       </c>
       <c r="H3">
-        <v>18.22164839699431</v>
+        <v>11.26435077917177</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.952127706943084</v>
+        <v>5.232601667980988</v>
       </c>
       <c r="K3">
-        <v>10.27966833475122</v>
+        <v>10.4620961117491</v>
       </c>
       <c r="L3">
-        <v>11.73319092111807</v>
+        <v>7.173914382095377</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.70881781553483</v>
+        <v>19.10563948414038</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.30824148186578</v>
+        <v>12.71976029798213</v>
       </c>
       <c r="C4">
-        <v>9.942264362760685</v>
+        <v>7.702727306112667</v>
       </c>
       <c r="D4">
-        <v>14.18720349660893</v>
+        <v>9.41364802266467</v>
       </c>
       <c r="E4">
-        <v>15.04142807395589</v>
+        <v>9.186009959883403</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>43.93731917901619</v>
+        <v>30.28759992803493</v>
       </c>
       <c r="H4">
-        <v>18.25721671696111</v>
+        <v>11.32202751786911</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.960783423272202</v>
+        <v>5.254025890051964</v>
       </c>
       <c r="K4">
-        <v>10.18529639603996</v>
+        <v>10.04627419413887</v>
       </c>
       <c r="L4">
-        <v>11.73458469076688</v>
+        <v>7.089833217944368</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.77093809211249</v>
+        <v>19.17189039730111</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.25821120749323</v>
+        <v>12.4878228810319</v>
       </c>
       <c r="C5">
-        <v>9.944720707849934</v>
+        <v>7.709740676446626</v>
       </c>
       <c r="D5">
-        <v>14.18782520034126</v>
+        <v>9.359236785994668</v>
       </c>
       <c r="E5">
-        <v>15.04902113806031</v>
+        <v>9.176574228477577</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43.97630143544674</v>
+        <v>30.28893594591601</v>
       </c>
       <c r="H5">
-        <v>18.27234027014256</v>
+        <v>11.34694268434919</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.96442647763371</v>
+        <v>5.26295353040077</v>
       </c>
       <c r="K5">
-        <v>10.14694049313715</v>
+        <v>9.871617996840968</v>
       </c>
       <c r="L5">
-        <v>11.73552762429969</v>
+        <v>7.055985705077582</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>29.79753611658895</v>
+        <v>19.202030221431</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.24992357204987</v>
+        <v>12.44893313436284</v>
       </c>
       <c r="C6">
-        <v>9.945136900810663</v>
+        <v>7.710924376504543</v>
       </c>
       <c r="D6">
-        <v>14.18796715834367</v>
+        <v>9.350249440020354</v>
       </c>
       <c r="E6">
-        <v>15.05031339074709</v>
+        <v>9.175072230467153</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.98292600460606</v>
+        <v>30.28954929154327</v>
       </c>
       <c r="H6">
-        <v>18.27488953503852</v>
+        <v>11.35116389980269</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.965038406613845</v>
+        <v>5.264447930423685</v>
       </c>
       <c r="K6">
-        <v>10.14057894204765</v>
+        <v>9.842303674705002</v>
       </c>
       <c r="L6">
-        <v>11.73570687734838</v>
+        <v>7.05039149208748</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>29.80203019210251</v>
+        <v>19.20722134480807</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.30756546224289</v>
+        <v>12.71665766606524</v>
       </c>
       <c r="C7">
-        <v>9.942296932494859</v>
+        <v>7.702820606453884</v>
       </c>
       <c r="D7">
-        <v>14.18720928600052</v>
+        <v>9.412911062993533</v>
       </c>
       <c r="E7">
-        <v>15.04152836982746</v>
+        <v>9.185878352717689</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>43.93783474058847</v>
+        <v>30.28759154234978</v>
       </c>
       <c r="H7">
-        <v>18.25741813055025</v>
+        <v>11.32235787109699</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.960832085547654</v>
+        <v>5.254145490205675</v>
       </c>
       <c r="K7">
-        <v>10.18477864588522</v>
+        <v>10.04393972637218</v>
       </c>
       <c r="L7">
-        <v>11.73459588778825</v>
+        <v>7.089375007879095</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.77129160672457</v>
+        <v>19.17228430297465</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.56440854842272</v>
+        <v>13.84231333081983</v>
       </c>
       <c r="C8">
-        <v>9.930970904919475</v>
+        <v>7.669860021468984</v>
       </c>
       <c r="D8">
-        <v>14.18948285890991</v>
+        <v>9.695902454587655</v>
       </c>
       <c r="E8">
-        <v>15.00732835308371</v>
+        <v>9.243082095103695</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>43.76093544991109</v>
+        <v>30.33755498091209</v>
       </c>
       <c r="H8">
-        <v>18.18584339068655</v>
+        <v>11.2077454505545</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.943286072499133</v>
+        <v>5.210407084524491</v>
       </c>
       <c r="K8">
-        <v>10.38059450644258</v>
+        <v>10.88789477889663</v>
       </c>
       <c r="L8">
-        <v>11.73298199640015</v>
+        <v>7.264962691114219</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.64691952846857</v>
+        <v>19.04601067212625</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.0731572828234</v>
+        <v>15.84253718223181</v>
       </c>
       <c r="C9">
-        <v>9.913066982101178</v>
+        <v>7.6154787124068</v>
       </c>
       <c r="D9">
-        <v>14.21400820758805</v>
+        <v>10.26997874894455</v>
       </c>
       <c r="E9">
-        <v>14.95665096959937</v>
+        <v>9.39032767273371</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>43.49378362509564</v>
+        <v>30.66187043123298</v>
       </c>
       <c r="H9">
-        <v>18.06531318509347</v>
+        <v>11.03082314097406</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.912506147825068</v>
+        <v>5.130669160665172</v>
       </c>
       <c r="K9">
-        <v>10.76448275102003</v>
+        <v>12.37603510289659</v>
       </c>
       <c r="L9">
-        <v>11.7415551661359</v>
+        <v>7.619836270007724</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.44359407584708</v>
+        <v>18.90657239404632</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.44663421344819</v>
+        <v>17.247004977</v>
       </c>
       <c r="C10">
-        <v>9.902512897541712</v>
+        <v>7.581975925703732</v>
       </c>
       <c r="D10">
-        <v>14.24412656166797</v>
+        <v>10.69985604250659</v>
       </c>
       <c r="E10">
-        <v>14.9293859843638</v>
+        <v>9.520569888563575</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.34645770939375</v>
+        <v>31.05169483447206</v>
       </c>
       <c r="H10">
-        <v>17.98882647447594</v>
+        <v>10.93290792886129</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.892082627783457</v>
+        <v>5.075601826017735</v>
       </c>
       <c r="K10">
-        <v>11.04394236622549</v>
+        <v>13.36688908087177</v>
       </c>
       <c r="L10">
-        <v>11.75493019400569</v>
+        <v>7.885042079574831</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>29.31899452921864</v>
+        <v>18.87765567060709</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.61577142107846</v>
+        <v>17.86647323209904</v>
       </c>
       <c r="C11">
-        <v>9.898270779055826</v>
+        <v>7.568184264889368</v>
       </c>
       <c r="D11">
-        <v>14.26042050593385</v>
+        <v>10.89648630693818</v>
       </c>
       <c r="E11">
-        <v>14.91914082007314</v>
+        <v>9.584733501827984</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.29012801500895</v>
+        <v>31.26462918191436</v>
       </c>
       <c r="H11">
-        <v>17.95664664176698</v>
+        <v>10.89601411515073</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.883262608918512</v>
+        <v>5.051276824731056</v>
       </c>
       <c r="K11">
-        <v>11.17000105117365</v>
+        <v>13.79543249227919</v>
       </c>
       <c r="L11">
-        <v>11.76253223131589</v>
+        <v>8.006278237665343</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>29.26770317307262</v>
+        <v>18.88215526961091</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.67965339926558</v>
+        <v>18.09615721486041</v>
       </c>
       <c r="C12">
-        <v>9.896744341424149</v>
+        <v>7.563174558068337</v>
       </c>
       <c r="D12">
-        <v>14.26695993783791</v>
+        <v>10.97104774884894</v>
       </c>
       <c r="E12">
-        <v>14.91557092134673</v>
+        <v>9.609745823280742</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>43.27033906709002</v>
+        <v>31.35058483709106</v>
       </c>
       <c r="H12">
-        <v>17.94483663716465</v>
+        <v>10.88320438832452</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.87999005074585</v>
+        <v>5.042166772082182</v>
       </c>
       <c r="K12">
-        <v>11.21754136646958</v>
+        <v>13.95452939655537</v>
       </c>
       <c r="L12">
-        <v>11.76562731961491</v>
+        <v>8.052242706816818</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>29.24905636420261</v>
+        <v>18.88654044002373</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.66590357672171</v>
+        <v>18.0469074635621</v>
       </c>
       <c r="C13">
-        <v>9.89706953750694</v>
+        <v>7.564243943455868</v>
       </c>
       <c r="D13">
-        <v>14.2655351915039</v>
+        <v>10.95498586875786</v>
       </c>
       <c r="E13">
-        <v>14.91632599764604</v>
+        <v>9.604327053470618</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>43.27453232515819</v>
+        <v>31.33183294905023</v>
       </c>
       <c r="H13">
-        <v>17.94736342138363</v>
+        <v>10.88591053459821</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.880691862204371</v>
+        <v>5.044124329155366</v>
       </c>
       <c r="K13">
-        <v>11.20731204448222</v>
+        <v>13.92040639090574</v>
       </c>
       <c r="L13">
-        <v>11.76495114536874</v>
+        <v>8.042341447099398</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>29.25303775328158</v>
+        <v>18.88547446589817</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.62103069128415</v>
+        <v>17.88546725148177</v>
       </c>
       <c r="C14">
-        <v>9.898143597992865</v>
+        <v>7.567767819298029</v>
       </c>
       <c r="D14">
-        <v>14.26095112996794</v>
+        <v>10.90261876628749</v>
       </c>
       <c r="E14">
-        <v>14.91884091853544</v>
+        <v>9.586776908107955</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>43.28846903930239</v>
+        <v>31.27159302521874</v>
       </c>
       <c r="H14">
-        <v>17.95566749479277</v>
+        <v>10.89493661583025</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.882992024673786</v>
+        <v>5.050525322818297</v>
       </c>
       <c r="K14">
-        <v>11.17391637002464</v>
+        <v>13.80858521085261</v>
       </c>
       <c r="L14">
-        <v>11.7627825410517</v>
+        <v>8.010058825260604</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>29.26615352828634</v>
+        <v>18.88246147723087</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.59352138302078</v>
+        <v>17.78594465313789</v>
       </c>
       <c r="C15">
-        <v>9.898811891799028</v>
+        <v>7.569954161011146</v>
       </c>
       <c r="D15">
-        <v>14.25819123743651</v>
+        <v>10.87055417860786</v>
       </c>
       <c r="E15">
-        <v>14.92042169727089</v>
+        <v>9.576120272727927</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.29720661024699</v>
+        <v>31.23539323091124</v>
       </c>
       <c r="H15">
-        <v>17.9608029156067</v>
+        <v>10.90061844969127</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.884409708093168</v>
+        <v>5.054459216394307</v>
       </c>
       <c r="K15">
-        <v>11.15343390259951</v>
+        <v>13.7396773467218</v>
       </c>
       <c r="L15">
-        <v>11.76148232725392</v>
+        <v>7.990291088779664</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>29.27428842392307</v>
+        <v>18.88096939355072</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.43556046944319</v>
+        <v>17.20583316829121</v>
       </c>
       <c r="C16">
-        <v>9.902801342193476</v>
+        <v>7.582906779740853</v>
       </c>
       <c r="D16">
-        <v>14.24311359103325</v>
+        <v>10.68702281418582</v>
       </c>
       <c r="E16">
-        <v>14.93009890354571</v>
+        <v>9.516476270462228</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.35035450511906</v>
+        <v>31.03851305330585</v>
       </c>
       <c r="H16">
-        <v>17.99098209755309</v>
+        <v>10.93547809317406</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.892668483542501</v>
+        <v>5.077205864386801</v>
       </c>
       <c r="K16">
-        <v>11.03567902782209</v>
+        <v>13.33843666986997</v>
       </c>
       <c r="L16">
-        <v>11.75446376460044</v>
+        <v>7.877128297038729</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>29.32245508734778</v>
+        <v>18.87772898805903</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.33842065949176</v>
+        <v>16.84117416915188</v>
       </c>
       <c r="C17">
-        <v>9.905391610905511</v>
+        <v>7.591227020763758</v>
       </c>
       <c r="D17">
-        <v>14.23452560602441</v>
+        <v>10.57466878100378</v>
       </c>
       <c r="E17">
-        <v>14.93658783983712</v>
+        <v>9.481151641923478</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>43.38570040065523</v>
+        <v>30.92699970062312</v>
       </c>
       <c r="H17">
-        <v>18.01016554538786</v>
+        <v>10.95886480588834</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.897855328507022</v>
+        <v>5.091343886519766</v>
       </c>
       <c r="K17">
-        <v>10.96313631333152</v>
+        <v>13.08660687381218</v>
       </c>
       <c r="L17">
-        <v>11.75054551715986</v>
+        <v>7.807836121734693</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>29.35338497674515</v>
+        <v>18.88036335906945</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.28248026715922</v>
+        <v>16.62818770180408</v>
       </c>
       <c r="C18">
-        <v>9.906934104619786</v>
+        <v>7.596148690834051</v>
       </c>
       <c r="D18">
-        <v>14.22983032103016</v>
+        <v>10.51014995382575</v>
       </c>
       <c r="E18">
-        <v>14.94052324605279</v>
+        <v>9.461296119237103</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>43.40703632772644</v>
+        <v>30.86619976451954</v>
       </c>
       <c r="H18">
-        <v>18.02144544087529</v>
+        <v>10.97303223623835</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.900882990894331</v>
+        <v>5.099544169721291</v>
       </c>
       <c r="K18">
-        <v>10.92131345039881</v>
+        <v>12.93967037981754</v>
       </c>
       <c r="L18">
-        <v>11.74843481497094</v>
+        <v>7.768038555985488</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>29.37168226326272</v>
+        <v>18.88353154842228</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.26352988716548</v>
+        <v>16.5555152675547</v>
       </c>
       <c r="C19">
-        <v>9.907465420250814</v>
+        <v>7.597838324058119</v>
       </c>
       <c r="D19">
-        <v>14.22828264065913</v>
+        <v>10.48832458901904</v>
       </c>
       <c r="E19">
-        <v>14.9418906130368</v>
+        <v>9.454652517234594</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>43.41443291878259</v>
+        <v>30.84618116152657</v>
       </c>
       <c r="H19">
-        <v>18.02530688917299</v>
+        <v>10.97795024876091</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.901915727656146</v>
+        <v>5.102332493648505</v>
       </c>
       <c r="K19">
-        <v>10.90713737496236</v>
+        <v>12.88956095648419</v>
       </c>
       <c r="L19">
-        <v>11.74774477799953</v>
+        <v>7.75457461367053</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>29.37796449355386</v>
+        <v>18.88488383873352</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.34876883239376</v>
+        <v>16.8803281113593</v>
       </c>
       <c r="C20">
-        <v>9.905110427426296</v>
+        <v>7.590327200551557</v>
       </c>
       <c r="D20">
-        <v>14.23541455290529</v>
+        <v>10.58661867138768</v>
       </c>
       <c r="E20">
-        <v>14.93587606100858</v>
+        <v>9.484864105017136</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>43.38183362672851</v>
+        <v>30.93852334667634</v>
       </c>
       <c r="H20">
-        <v>18.00809796690822</v>
+        <v>10.95630071278779</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.897298594581688</v>
+        <v>5.089831805289859</v>
       </c>
       <c r="K20">
-        <v>10.97086908059588</v>
+        <v>13.11363091298797</v>
       </c>
       <c r="L20">
-        <v>11.75094783764756</v>
+        <v>7.815206671938081</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>29.35003993247945</v>
+        <v>18.87991082485665</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.63421591562857</v>
+        <v>17.93301855412449</v>
       </c>
       <c r="C21">
-        <v>9.897825953637298</v>
+        <v>7.566726955699823</v>
       </c>
       <c r="D21">
-        <v>14.26228758835443</v>
+        <v>10.91799788717837</v>
       </c>
       <c r="E21">
-        <v>14.91809382437088</v>
+        <v>9.591912346764481</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>43.28433360690108</v>
+        <v>31.28914095629094</v>
       </c>
       <c r="H21">
-        <v>17.95321818915218</v>
+        <v>10.89225341692764</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.882314584595537</v>
+        <v>5.048642471336838</v>
       </c>
       <c r="K21">
-        <v>11.18373111557546</v>
+        <v>13.84151608793151</v>
       </c>
       <c r="L21">
-        <v>11.76341365625605</v>
+        <v>8.019539751142142</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>29.2622800352128</v>
+        <v>18.88327254638786</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.81977567507916</v>
+        <v>18.59250700288388</v>
       </c>
       <c r="C22">
-        <v>9.893531005636055</v>
+        <v>7.552546108866334</v>
       </c>
       <c r="D22">
-        <v>14.282001158399</v>
+        <v>11.13514605612052</v>
       </c>
       <c r="E22">
-        <v>14.9082770963448</v>
+        <v>9.666045154503708</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>43.22960084162707</v>
+        <v>31.54939645531952</v>
       </c>
       <c r="H22">
-        <v>17.91954146692876</v>
+        <v>10.8571939547574</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.872914339782486</v>
+        <v>5.022311801170763</v>
       </c>
       <c r="K22">
-        <v>11.32169181592381</v>
+        <v>14.29868562894389</v>
       </c>
       <c r="L22">
-        <v>11.77282095758682</v>
+        <v>8.153391374042245</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>29.2094481325414</v>
+        <v>18.90116609585048</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.72084858828348</v>
+        <v>18.24311488182964</v>
       </c>
       <c r="C23">
-        <v>9.895780811339232</v>
+        <v>7.559999342306144</v>
       </c>
       <c r="D23">
-        <v>14.27128415571118</v>
+        <v>11.01921375130671</v>
       </c>
       <c r="E23">
-        <v>14.91335151631986</v>
+        <v>9.626094974806186</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>43.25798880482164</v>
+        <v>31.40758303873345</v>
       </c>
       <c r="H23">
-        <v>17.93731499275199</v>
+        <v>10.87526253023918</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.877895596499028</v>
+        <v>5.036312119266843</v>
       </c>
       <c r="K23">
-        <v>11.24817879702915</v>
+        <v>14.05637791401158</v>
       </c>
       <c r="L23">
-        <v>11.76768544887658</v>
+        <v>8.081933401519624</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>29.2372311933181</v>
+        <v>18.89013195117216</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.34409071001807</v>
+        <v>16.86263701900639</v>
       </c>
       <c r="C24">
-        <v>9.905237384377795</v>
+        <v>7.590733578982639</v>
       </c>
       <c r="D24">
-        <v>14.23501190576414</v>
+        <v>10.58121588823952</v>
       </c>
       <c r="E24">
-        <v>14.93619721815399</v>
+        <v>9.483184289836567</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>43.38357863358932</v>
+        <v>30.93330321008031</v>
       </c>
       <c r="H24">
-        <v>18.00903193703022</v>
+        <v>10.95745769470578</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.89755015168938</v>
+        <v>5.090515192268842</v>
       </c>
       <c r="K24">
-        <v>10.96737345803683</v>
+        <v>13.10142006156063</v>
       </c>
       <c r="L24">
-        <v>11.75076550625783</v>
+        <v>7.811874321052803</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>29.35155062198901</v>
+        <v>18.88011027558338</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.93533740093401</v>
+        <v>15.32405403361583</v>
       </c>
       <c r="C25">
-        <v>9.91745206528401</v>
+        <v>7.629072892880504</v>
       </c>
       <c r="D25">
-        <v>14.20523767910848</v>
+        <v>10.11300498279766</v>
       </c>
       <c r="E25">
-        <v>14.96860820073593</v>
+        <v>9.34666422593982</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>43.55748164768766</v>
+        <v>30.54846416333936</v>
       </c>
       <c r="H25">
-        <v>18.09579926777751</v>
+        <v>11.07327501733747</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.92044674653804</v>
+        <v>5.151610852949064</v>
       </c>
       <c r="K25">
-        <v>10.66090577214694</v>
+        <v>11.9914339716315</v>
       </c>
       <c r="L25">
-        <v>11.73798700939521</v>
+        <v>7.522909894445551</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.49425037770871</v>
+        <v>18.93194209258259</v>
       </c>
     </row>
   </sheetData>
